--- a/bsd-api-dms-order/sample_Order_File_aice_v4 - 1.xlsx
+++ b/bsd-api-dms-order/sample_Order_File_aice_v4 - 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\mono-dms-new\bsd-api-dms-order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324F84FF-9248-4C7B-ABC9-36A70391EA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AB41EB-4B78-4437-A204-DADA439C8764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>INV/20231217/01/06</t>
+    <t>INV/20231219/01/01</t>
   </si>
 </sst>
 </file>
@@ -460,7 +460,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -615,7 +615,7 @@
     </row>
     <row r="2" spans="1:60" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>45277</v>
+        <v>45279</v>
       </c>
       <c r="B2">
         <v>1</v>
